--- a/nyTicketsRun.xlsx
+++ b/nyTicketsRun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\Documents\Diplomatiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8CA2DC-F5BF-4DFB-96F4-4C44A8BD46F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725978C2-6F6E-4699-BF8D-80B8774FBBED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="0" windowWidth="13950" windowHeight="11385" activeTab="1" xr2:uid="{87B5D545-4500-4D36-B410-AB500BE5C236}"/>
+    <workbookView xWindow="-15" yWindow="0" windowWidth="13950" windowHeight="15495" activeTab="1" xr2:uid="{87B5D545-4500-4D36-B410-AB500BE5C236}"/>
   </bookViews>
   <sheets>
     <sheet name="time" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>MAP_REDUCE</t>
   </si>
@@ -75,7 +75,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -109,7 +109,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -872,7 +872,336 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>memory!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>space (MB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>memory!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>PARQUET</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HYBRID_COLUMNAR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAP_REDUCE (mem)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>memory!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>36.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3395.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-875E-49C6-AAD3-FDEE95CB9972}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="578767736"/>
+        <c:axId val="578769048"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="578767736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="578769048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="578769048"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="578767736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="el-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1415,6 +1744,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1436,6 +2268,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B1B8D2A-ACE2-409F-AC9E-5989352C81CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Γράφημα 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3366C375-4157-4EC1-9607-DB4B51583293}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1756,7 +2629,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A3:A5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1909,7 +2782,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1949,5 +2822,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/nyTicketsRun.xlsx
+++ b/nyTicketsRun.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\Documents\Diplomatiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725978C2-6F6E-4699-BF8D-80B8774FBBED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFA1D40-F7A0-4ED4-838A-CBBA298A342A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="0" windowWidth="13950" windowHeight="15495" activeTab="1" xr2:uid="{87B5D545-4500-4D36-B410-AB500BE5C236}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{87B5D545-4500-4D36-B410-AB500BE5C236}"/>
   </bookViews>
   <sheets>
     <sheet name="time" sheetId="1" r:id="rId1"/>
-    <sheet name="memory" sheetId="2" r:id="rId2"/>
+    <sheet name="bit packing vs roaring" sheetId="5" r:id="rId2"/>
+    <sheet name="memory" sheetId="2" r:id="rId3"/>
+    <sheet name="data stats" sheetId="3" r:id="rId4"/>
+    <sheet name="Encodings per column" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>MAP_REDUCE</t>
   </si>
@@ -69,6 +73,75 @@
   <si>
     <t>space (MB)</t>
   </si>
+  <si>
+    <t>Registration State</t>
+  </si>
+  <si>
+    <t>NY 79%, NJ 9%, PA 3%, FL 1%</t>
+  </si>
+  <si>
+    <t>Plate Type</t>
+  </si>
+  <si>
+    <t>PAS 74%, COM 17%, OMT 4%, OMS 1%</t>
+  </si>
+  <si>
+    <t>Issue Date</t>
+  </si>
+  <si>
+    <t>Vehicle Body Type</t>
+  </si>
+  <si>
+    <t>SUBN 34%, 4DSD 29%, VAN 13%, DELV 6%</t>
+  </si>
+  <si>
+    <t>Vehicle Make</t>
+  </si>
+  <si>
+    <t>FORD 12%, TOYOT 11%, HONDA 10%, NISSA 9%</t>
+  </si>
+  <si>
+    <t>(RLE_DICTIONARY,31)</t>
+  </si>
+  <si>
+    <t>(DELTA_DICTIONARY,1), (BIT_PACKING_DICTIONARY,30)</t>
+  </si>
+  <si>
+    <t>(ROARING,9), (BIT_PACKING_DICTIONARY,22)</t>
+  </si>
+  <si>
+    <t>17/12/2016 4%, 7/10/2016 0.62%</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Unique values</t>
+  </si>
+  <si>
+    <t>Representative values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAP_REDUCE </t>
+  </si>
+  <si>
+    <t>RLE_DICTIONARY</t>
+  </si>
+  <si>
+    <t>BIT_PACKING_DICTIONARY</t>
+  </si>
+  <si>
+    <t>ROARING</t>
+  </si>
+  <si>
+    <t>DELTA_DICTIONARY</t>
+  </si>
+  <si>
+    <t>bit packing + roaring</t>
+  </si>
+  <si>
+    <t>bit packing</t>
+  </si>
 </sst>
 </file>
 
@@ -77,7 +150,15 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,7 +176,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -103,18 +184,258 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Ποσοστό" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -887,6 +1208,453 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Group by vehicle make</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'bit packing vs roaring'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HYBRID_COLUMNAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'bit packing vs roaring'!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>bit packing + roaring</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bit packing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'bit packing vs roaring'!$B$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10.721</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1240000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F44C-49D4-801D-45E8AFA35708}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="606742928"/>
+        <c:axId val="606749816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="606742928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>encoding</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="606749816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="606749816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="606742928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="el-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Encoding</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> performance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -959,7 +1727,7 @@
                   <c:v>HYBRID_COLUMNAR</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MAP_REDUCE (mem)</c:v>
+                  <c:v>MAP_REDUCE </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1008,6 +1776,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>encoding</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1074,6 +1897,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size in memory (MB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1117,6 +1995,703 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="el-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Encodings per column</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Encodings per column'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RLE_DICTIONARY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Encodings per column'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Registration State</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Plate Type</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Issue Date</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vehicle Body Type</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Vehicle Make</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Encodings per column'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B9D4-4CD6-8331-1FDB09C6D21B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Encodings per column'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DELTA_DICTIONARY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Encodings per column'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Registration State</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Plate Type</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Issue Date</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vehicle Body Type</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Vehicle Make</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Encodings per column'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B9D4-4CD6-8331-1FDB09C6D21B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Encodings per column'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BIT_PACKING_DICTIONARY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Encodings per column'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Registration State</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Plate Type</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Issue Date</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vehicle Body Type</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Vehicle Make</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Encodings per column'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B9D4-4CD6-8331-1FDB09C6D21B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Encodings per column'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ROARING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Encodings per column'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Registration State</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Plate Type</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Issue Date</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vehicle Body Type</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Vehicle Make</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Encodings per column'!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B9D4-4CD6-8331-1FDB09C6D21B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="600293440"/>
+        <c:axId val="626970656"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="600293440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Column</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="626970656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="626970656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Encodings distribution</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="600293440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1241,6 +2816,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2215,6 +3870,1014 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2292,6 +4955,49 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Γράφημα 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3F1F055-C31F-4F54-B3C5-3F1111865F20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -2327,6 +5033,59 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1090612</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Γράφημα 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5164A4A8-788A-40DA-B763-94685D327264}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{09ABFC76-6949-4A71-84FD-849586702184}" name="Πίνακας1" displayName="Πίνακας1" ref="A1:C6" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:C6" xr:uid="{A302C23F-484D-4F5F-8A5F-BF30AF110158}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{EAE9A3FF-5CAA-4BE0-9265-279EFED3377C}" name="Column" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{58703F14-EA77-4F51-8B05-650012C3D652}" name="Unique values" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{251F875B-5300-44C1-BBA2-7C9A3641CAA6}" name="Representative values" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2629,7 +5388,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2642,6 +5401,9 @@
     <col min="6" max="6" width="18.85546875" customWidth="1"/>
     <col min="7" max="7" width="24.5703125" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2778,11 +5540,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{199AFC03-7BF1-4EED-8DB9-C6666C6FA1C7}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10.721</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.1240000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EDE334-B0A6-466C-9B1A-B5DBE4AF1A96}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2814,10 +5616,252 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>3395.78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650FA534-9548-412D-8495-D888862C6298}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="A12:E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" customWidth="1"/>
+    <col min="4" max="4" width="61.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7">
+        <v>67</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7">
+        <v>86</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2063</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1849</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="12">
+        <v>5704</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B12F319-260D-46C7-A218-7F5039C8F26E}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>31</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>31</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <f>-B4-E7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>31</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
